--- a/documentation/template/4 아키텍처 정의/1 아키텍처 분석/software-list.xlsx
+++ b/documentation/template/4 아키텍처 정의/1 아키텍처 분석/software-list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="19200" windowHeight="11865"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="19200" windowHeight="10515"/>
   </bookViews>
   <sheets>
     <sheet name="SW 구성 현황" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="93">
   <si>
     <t>대분류</t>
   </si>
@@ -31,189 +31,324 @@
     <t>벤더명</t>
   </si>
   <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>Web Client</t>
+  </si>
+  <si>
+    <t>Web Browser</t>
+  </si>
+  <si>
+    <t>X-Internet</t>
+  </si>
+  <si>
+    <t>Ajax</t>
+  </si>
+  <si>
+    <t>Report</t>
+  </si>
+  <si>
+    <t>Security</t>
+  </si>
+  <si>
+    <t>웹 구간 암호화</t>
+  </si>
+  <si>
+    <t>키보드 보안</t>
+  </si>
+  <si>
+    <t>개인 방화벽</t>
+  </si>
+  <si>
+    <t>SSL</t>
+  </si>
+  <si>
+    <t>Remote Support</t>
+  </si>
+  <si>
+    <t>원격제어</t>
+  </si>
+  <si>
+    <t>Presentation Tier</t>
+  </si>
+  <si>
+    <t>Web Server</t>
+  </si>
+  <si>
+    <t>Framework</t>
+  </si>
+  <si>
+    <t>Rule Engine</t>
+  </si>
+  <si>
+    <t>Integration Tier</t>
+  </si>
+  <si>
+    <t>EAI</t>
+  </si>
+  <si>
+    <t>MCI</t>
+  </si>
+  <si>
+    <t>FEP</t>
+  </si>
+  <si>
+    <t>Infrastructure Tier</t>
+  </si>
+  <si>
+    <t>Batch Scheduler</t>
+  </si>
+  <si>
+    <t>실명인증</t>
+  </si>
+  <si>
+    <t>공인인증 (CRL)</t>
+  </si>
+  <si>
+    <t>공인인증 (OCSP)</t>
+  </si>
+  <si>
+    <t>I-Pin</t>
+  </si>
+  <si>
+    <t>SSO</t>
+  </si>
+  <si>
+    <t>안심클릭</t>
+  </si>
+  <si>
+    <t>Call Center</t>
+  </si>
+  <si>
+    <t>APM</t>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mobile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rich Client</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화면 보안</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 암호화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결재</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMS (Phone)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보안 메일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반 메일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image Server</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAX Server</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monitoring</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unix</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WAS 성능 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라이센스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예: Windows XP, Windows 7 32bit, Windows 7 64bit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예: Android 4.0.x, 4.1.x, ..., iOS 4.x, 5.x, 6.x, ...</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">예: IE 8, 9, Firefox 3.5, 3.6, Chrome </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예: AIX 6.x, 7.x, ..., HP UX 11.2x, 11.3x, ...</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예: Acheche Httpd, iPlanet, WebtoB, ...</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예: XPLATFORM, Miplatform, InnoXync, Gauce, TrustForm, Oz, ...</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Greed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예: iBSheet, ...</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTML5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예: jQuery, Prototype, Dojo, DWR, GWT, ...</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">예: </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flex / Flash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예: ChartFX, FusionCharts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예: Report Designer, Rexpert, Oz Report, ...</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">예: Flex 3, 4, 4.5, .., </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일 보안</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예: VeriSigh, Any Cert, Cert Korea, OpenSSL, ...</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예: Rview, ...</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일 보안</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출력 보안</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예: Fasoo FSP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예: Fasoo FSD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">예: Fasoo FSW, XecureWeb, </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예: Java 5 64bit, Java 6 64bit, Java 7 64bit, ...</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예: Springframework, Anyframe, Seam, ...</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예: Tiles, Tapestry, Struts2, Springframework, Anyframe, Seam, ...</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSE SDK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JEE Technology</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JEE Spec.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예: JSP/Servlet, JSF, Portlet, ...</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예: 1.4, 1.5, 1.6, ...</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Client</t>
-  </si>
-  <si>
-    <t>OS</t>
-  </si>
-  <si>
-    <t>Web Client</t>
-  </si>
-  <si>
-    <t>Web Browser</t>
-  </si>
-  <si>
-    <t>X-Internet</t>
-  </si>
-  <si>
-    <t>Ajax</t>
-  </si>
-  <si>
-    <t>Flex</t>
-  </si>
-  <si>
-    <t>Report</t>
-  </si>
-  <si>
-    <t>Security</t>
-  </si>
-  <si>
-    <t>웹 구간 암호화</t>
-  </si>
-  <si>
-    <t>키보드 보안</t>
-  </si>
-  <si>
-    <t>개인 방화벽</t>
-  </si>
-  <si>
-    <t>SSL</t>
-  </si>
-  <si>
-    <t>Remote Support</t>
-  </si>
-  <si>
-    <t>원격제어</t>
-  </si>
-  <si>
-    <t>Presentation Tier</t>
-  </si>
-  <si>
-    <t>Web Server</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Persistence Tier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Database Server</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Business Tier</t>
-  </si>
-  <si>
-    <t>JDK</t>
-  </si>
-  <si>
-    <t>Web Application Server</t>
-  </si>
-  <si>
-    <t>Framework</t>
-  </si>
-  <si>
-    <t>Rule Engine</t>
-  </si>
-  <si>
-    <t>Persistence Tier</t>
-  </si>
-  <si>
-    <t>Database Server</t>
-  </si>
-  <si>
-    <t>Integration Tier</t>
-  </si>
-  <si>
-    <t>EAI</t>
-  </si>
-  <si>
-    <t>MCI</t>
-  </si>
-  <si>
-    <t>FEP</t>
-  </si>
-  <si>
-    <t>Infrastructure Tier</t>
-  </si>
-  <si>
-    <t>Batch Scheduler</t>
-  </si>
-  <si>
-    <t>실명인증</t>
-  </si>
-  <si>
-    <t>공인인증 (CRL)</t>
-  </si>
-  <si>
-    <t>공인인증 (OCSP)</t>
-  </si>
-  <si>
-    <t>I-Pin</t>
-  </si>
-  <si>
-    <t>SSO</t>
-  </si>
-  <si>
-    <t>안심클릭</t>
-  </si>
-  <si>
-    <t>Call Center</t>
-  </si>
-  <si>
-    <t>APM</t>
-  </si>
-  <si>
-    <t>비고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mobile</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rich Client</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Chart</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>화면 보안</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>데이터 암호화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>결재</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SMS (Phone)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Email</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>보안 메일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일반 메일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image Server</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FAX Server</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Monitoring</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unix</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WAS 성능 관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>라이센스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예: Fasoo FSS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예: nProtect KeyCrypt, SoftCamp Secure KeyStroke, ...</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예: Fasoo FSE, XecureExpress, ...</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -346,7 +481,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -374,6 +509,12 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -383,8 +524,14 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -687,25 +834,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H44"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:H65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H24" sqref="H24"/>
+      <selection pane="bottomRight" activeCell="J47" sqref="J47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.375" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.75" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="39.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="45.25" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
@@ -729,138 +879,156 @@
         <v>4</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="9" t="s">
+      <c r="A2" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D2" s="12"/>
+      <c r="C2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="6"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
-      <c r="H2" s="12"/>
+      <c r="H2" s="6" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="10"/>
-      <c r="B3" s="11"/>
+      <c r="A3" s="12"/>
+      <c r="B3" s="11" t="s">
+        <v>5</v>
+      </c>
       <c r="C3" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" s="12"/>
+        <v>37</v>
+      </c>
+      <c r="D3" s="10"/>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
+      <c r="H3" s="10" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="10"/>
-      <c r="B4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="6"/>
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="10"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
+      <c r="H4" s="6" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
-        <v>20</v>
+      <c r="A5" s="14" t="s">
+        <v>18</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
+      <c r="H5" s="6" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="10"/>
+      <c r="A6" s="15"/>
       <c r="B6" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
+      <c r="H6" s="6" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="10"/>
-      <c r="B7" s="9" t="s">
-        <v>46</v>
+      <c r="A7" s="15"/>
+      <c r="B7" s="11" t="s">
+        <v>39</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
+      <c r="H7" s="6" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
+      <c r="A8" s="15"/>
+      <c r="B8" s="12"/>
       <c r="C8" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
+      <c r="H8" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="10"/>
-      <c r="B9" s="11"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="12"/>
       <c r="C9" s="5" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
+      <c r="H9" s="6" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="10"/>
-      <c r="B10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="5"/>
+      <c r="A10" s="15"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="5" t="s">
+        <v>61</v>
+      </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
+      <c r="H10" s="6" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="10"/>
-      <c r="B11" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" s="5"/>
+      <c r="A11" s="15"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="5" t="s">
+        <v>63</v>
+      </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
@@ -868,445 +1036,809 @@
       <c r="H11" s="6"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="10"/>
-      <c r="B12" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>14</v>
-      </c>
+      <c r="A12" s="15"/>
+      <c r="B12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="5"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
+      <c r="H12" s="6" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="A13" s="15"/>
+      <c r="B13" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="5"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
+      <c r="H13" s="6" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="11" t="s">
+        <v>11</v>
+      </c>
       <c r="C14" s="5" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
+      <c r="H14" s="6" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
+      <c r="A15" s="15"/>
+      <c r="B15" s="12"/>
       <c r="C15" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
+      <c r="H15" s="6" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="10"/>
-      <c r="B16" s="11"/>
+      <c r="A16" s="15"/>
+      <c r="B16" s="12"/>
       <c r="C16" s="5" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
+      <c r="H16" s="6" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="11"/>
-      <c r="B17" s="5" t="s">
-        <v>18</v>
-      </c>
+      <c r="A17" s="15"/>
+      <c r="B17" s="12"/>
       <c r="C17" s="5" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
+      <c r="H17" s="6" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>6</v>
-      </c>
+      <c r="A18" s="15"/>
+      <c r="B18" s="12"/>
       <c r="C18" s="5" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
+      <c r="H18" s="6" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="10"/>
-      <c r="B19" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="5"/>
+      <c r="A19" s="15"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
+      <c r="H19" s="6" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="10"/>
-      <c r="B20" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" s="5"/>
+      <c r="A20" s="15"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
+      <c r="H20" s="6" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="10"/>
-      <c r="B21" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" s="5"/>
+      <c r="A21" s="15"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
+      <c r="H21" s="6" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="11"/>
+      <c r="A22" s="15"/>
       <c r="B22" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" s="5"/>
+        <v>16</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
+      <c r="H22" s="6" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="9" t="s">
-        <v>27</v>
-      </c>
+      <c r="A23" s="15"/>
       <c r="B23" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>58</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="C23" s="5"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
+      <c r="H23" s="6" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="10"/>
+      <c r="A24" s="15"/>
       <c r="B24" s="5" t="s">
-        <v>28</v>
+        <v>82</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
+      <c r="H24" s="6" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="11"/>
+      <c r="A25" s="15"/>
       <c r="B25" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>49</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="C25" s="5"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
+      <c r="H25" s="6" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="9" t="s">
-        <v>29</v>
-      </c>
+      <c r="A26" s="15"/>
       <c r="B26" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>58</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="C26" s="5"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
+      <c r="H26" s="6" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="10"/>
+      <c r="A27" s="16"/>
       <c r="B27" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C27" s="5"/>
+        <v>5</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>51</v>
+      </c>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="10"/>
+      <c r="H27" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="11" t="s">
+        <v>89</v>
+      </c>
       <c r="B28" s="5" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
+      <c r="H28" s="6" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="11"/>
+      <c r="A29" s="12"/>
       <c r="B29" s="5" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
+      <c r="H29" s="6" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="9" t="s">
-        <v>33</v>
-      </c>
+      <c r="A30" s="12"/>
       <c r="B30" s="5" t="s">
-        <v>34</v>
+        <v>82</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
+      <c r="H30" s="6" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="10"/>
+      <c r="A31" s="12"/>
       <c r="B31" s="5" t="s">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
+      <c r="H31" s="6" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="10"/>
-      <c r="B32" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>35</v>
-      </c>
+      <c r="A32" s="12"/>
+      <c r="B32" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C32" s="5"/>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
+      <c r="H32" s="6" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="10"/>
-      <c r="B33" s="10"/>
+      <c r="A33" s="13"/>
+      <c r="B33" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="C33" s="5" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
+      <c r="H33" s="6" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="10"/>
-      <c r="B34" s="10"/>
+      <c r="A34" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="C34" s="5" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
+      <c r="H34" s="6" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="10"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="5" t="s">
-        <v>38</v>
-      </c>
+      <c r="A35" s="15"/>
+      <c r="B35" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C35" s="5"/>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
+      <c r="H35" s="6" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="10"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="5" t="s">
-        <v>39</v>
-      </c>
+      <c r="A36" s="15"/>
+      <c r="B36" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C36" s="5"/>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
+      <c r="H36" s="6" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="10"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="5" t="s">
-        <v>40</v>
-      </c>
+      <c r="A37" s="15"/>
+      <c r="B37" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C37" s="5"/>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
+      <c r="H37" s="6" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="10"/>
+      <c r="A38" s="15"/>
       <c r="B38" s="5" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="C38" s="5"/>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
+      <c r="H38" s="6" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="10"/>
-      <c r="B39" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>53</v>
-      </c>
+      <c r="A39" s="15"/>
+      <c r="B39" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C39" s="5"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
+      <c r="H39" s="6" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="10"/>
-      <c r="B40" s="11"/>
+      <c r="A40" s="16"/>
+      <c r="B40" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="C40" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
       <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
+      <c r="H40" s="6" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="10"/>
+      <c r="A41" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="B41" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C41" s="5"/>
+        <v>5</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>51</v>
+      </c>
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
       <c r="G41" s="6"/>
-      <c r="H41" s="6"/>
+      <c r="H41" s="6" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="10"/>
+      <c r="A42" s="12"/>
       <c r="B42" s="5" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="C42" s="5"/>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
       <c r="G42" s="6"/>
-      <c r="H42" s="6"/>
+      <c r="H42" s="6" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="11"/>
+      <c r="A43" s="12"/>
       <c r="B43" s="5" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="C43" s="5"/>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
+      <c r="H43" s="6" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" s="5" t="s">
-        <v>57</v>
-      </c>
+      <c r="A44" s="13"/>
       <c r="B44" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>59</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="C44" s="5"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
-      <c r="H44" s="6"/>
+      <c r="H44" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45" s="9"/>
+      <c r="B45" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46" s="15"/>
+      <c r="B46" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C46" s="5"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47" s="15"/>
+      <c r="B47" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C47" s="5"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48" s="15"/>
+      <c r="B48" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C48" s="5"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49" s="15"/>
+      <c r="B49" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C49" s="5"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50" s="16"/>
+      <c r="B50" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C51" s="5"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52" s="12"/>
+      <c r="B52" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C52" s="5"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53" s="12"/>
+      <c r="B53" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54" s="12"/>
+      <c r="B54" s="12"/>
+      <c r="C54" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55" s="12"/>
+      <c r="B55" s="12"/>
+      <c r="C55" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56" s="12"/>
+      <c r="B56" s="12"/>
+      <c r="C56" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57" s="12"/>
+      <c r="B57" s="12"/>
+      <c r="C57" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A58" s="12"/>
+      <c r="B58" s="13"/>
+      <c r="C58" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6"/>
+      <c r="H58" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A59" s="12"/>
+      <c r="B59" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C59" s="5"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="6"/>
+      <c r="H59" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A60" s="12"/>
+      <c r="B60" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="6"/>
+      <c r="H60" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A61" s="12"/>
+      <c r="B61" s="13"/>
+      <c r="C61" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="6"/>
+      <c r="H61" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A62" s="12"/>
+      <c r="B62" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C62" s="5"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="6"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="6"/>
+      <c r="H62" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A63" s="12"/>
+      <c r="B63" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C63" s="5"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="6"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="6"/>
+      <c r="H63" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A64" s="13"/>
+      <c r="B64" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C64" s="5"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="6"/>
+      <c r="F64" s="6"/>
+      <c r="G64" s="6"/>
+      <c r="H64" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A65" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D65" s="6"/>
+      <c r="E65" s="6"/>
+      <c r="F65" s="6"/>
+      <c r="G65" s="6"/>
+      <c r="H65" s="6" t="s">
+        <v>59</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B2:B3"/>
+  <mergeCells count="9">
+    <mergeCell ref="A41:A44"/>
+    <mergeCell ref="B53:B58"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="A51:A64"/>
+    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="B3:B4"/>
     <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A17"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="A18:A22"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="B32:B37"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="A30:A43"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="B14:B21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="76" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/documentation/template/4 아키텍처 정의/1 아키텍처 분석/software-list.xlsx
+++ b/documentation/template/4 아키텍처 정의/1 아키텍처 분석/software-list.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="94">
   <si>
     <t>대분류</t>
   </si>
@@ -349,6 +349,10 @@
   </si>
   <si>
     <t>예: Fasoo FSE, XecureExpress, ...</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부인 방지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -516,6 +520,15 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -523,15 +536,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -837,13 +841,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H65"/>
+  <dimension ref="A1:H66"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J47" sqref="J47"/>
+      <selection pane="bottomRight" activeCell="B14" sqref="B14:B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.3"/>
@@ -886,7 +890,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="14" t="s">
         <v>86</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -904,8 +908,8 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="12"/>
-      <c r="B3" s="11" t="s">
+      <c r="A3" s="15"/>
+      <c r="B3" s="14" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="5" t="s">
@@ -920,8 +924,8 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
       <c r="C4" s="5" t="s">
         <v>38</v>
       </c>
@@ -934,7 +938,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="11" t="s">
         <v>18</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -952,7 +956,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="15"/>
+      <c r="A6" s="12"/>
       <c r="B6" s="5" t="s">
         <v>19</v>
       </c>
@@ -966,8 +970,8 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="15"/>
-      <c r="B7" s="11" t="s">
+      <c r="A7" s="12"/>
+      <c r="B7" s="14" t="s">
         <v>39</v>
       </c>
       <c r="C7" s="7" t="s">
@@ -982,8 +986,8 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="15"/>
-      <c r="B8" s="12"/>
+      <c r="A8" s="12"/>
+      <c r="B8" s="15"/>
       <c r="C8" s="5" t="s">
         <v>9</v>
       </c>
@@ -996,8 +1000,8 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="15"/>
-      <c r="B9" s="12"/>
+      <c r="A9" s="12"/>
+      <c r="B9" s="15"/>
       <c r="C9" s="5" t="s">
         <v>66</v>
       </c>
@@ -1010,8 +1014,8 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="15"/>
-      <c r="B10" s="12"/>
+      <c r="A10" s="12"/>
+      <c r="B10" s="15"/>
       <c r="C10" s="5" t="s">
         <v>61</v>
       </c>
@@ -1024,8 +1028,8 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="15"/>
-      <c r="B11" s="13"/>
+      <c r="A11" s="12"/>
+      <c r="B11" s="16"/>
       <c r="C11" s="5" t="s">
         <v>63</v>
       </c>
@@ -1036,7 +1040,7 @@
       <c r="H11" s="6"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="15"/>
+      <c r="A12" s="12"/>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
@@ -1050,7 +1054,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="15"/>
+      <c r="A13" s="12"/>
       <c r="B13" s="7" t="s">
         <v>40</v>
       </c>
@@ -1064,8 +1068,8 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="15"/>
-      <c r="B14" s="11" t="s">
+      <c r="A14" s="12"/>
+      <c r="B14" s="14" t="s">
         <v>11</v>
       </c>
       <c r="C14" s="5" t="s">
@@ -1080,8 +1084,8 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="15"/>
-      <c r="B15" s="12"/>
+      <c r="A15" s="12"/>
+      <c r="B15" s="15"/>
       <c r="C15" s="5" t="s">
         <v>13</v>
       </c>
@@ -1094,8 +1098,8 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="15"/>
-      <c r="B16" s="12"/>
+      <c r="A16" s="12"/>
+      <c r="B16" s="15"/>
       <c r="C16" s="5" t="s">
         <v>41</v>
       </c>
@@ -1108,8 +1112,8 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="15"/>
-      <c r="B17" s="12"/>
+      <c r="A17" s="12"/>
+      <c r="B17" s="15"/>
       <c r="C17" s="5" t="s">
         <v>73</v>
       </c>
@@ -1122,8 +1126,8 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="15"/>
-      <c r="B18" s="12"/>
+      <c r="A18" s="12"/>
+      <c r="B18" s="15"/>
       <c r="C18" s="5" t="s">
         <v>74</v>
       </c>
@@ -1136,8 +1140,8 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="15"/>
-      <c r="B19" s="12"/>
+      <c r="A19" s="12"/>
+      <c r="B19" s="15"/>
       <c r="C19" s="5" t="s">
         <v>14</v>
       </c>
@@ -1150,8 +1154,8 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="15"/>
-      <c r="B20" s="12"/>
+      <c r="A20" s="12"/>
+      <c r="B20" s="15"/>
       <c r="C20" s="5" t="s">
         <v>15</v>
       </c>
@@ -1164,8 +1168,8 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="15"/>
-      <c r="B21" s="13"/>
+      <c r="A21" s="12"/>
+      <c r="B21" s="15"/>
       <c r="C21" s="5" t="s">
         <v>70</v>
       </c>
@@ -1178,39 +1182,37 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="15"/>
-      <c r="B22" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="A22" s="12"/>
+      <c r="B22" s="16"/>
       <c r="C22" s="5" t="s">
-        <v>17</v>
+        <v>93</v>
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
-      <c r="H22" s="6" t="s">
-        <v>72</v>
-      </c>
+      <c r="H22" s="6"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="15"/>
+      <c r="A23" s="12"/>
       <c r="B23" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23" s="5"/>
+        <v>16</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
       <c r="H23" s="6" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="15"/>
+      <c r="A24" s="12"/>
       <c r="B24" s="5" t="s">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="6"/>
@@ -1218,13 +1220,13 @@
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
       <c r="H24" s="6" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="15"/>
+      <c r="A25" s="12"/>
       <c r="B25" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="6"/>
@@ -1232,13 +1234,13 @@
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
       <c r="H25" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="15"/>
+      <c r="A26" s="12"/>
       <c r="B26" s="5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="6"/>
@@ -1246,45 +1248,45 @@
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
       <c r="H26" s="6" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="16"/>
+      <c r="A27" s="12"/>
       <c r="B27" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>51</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="C27" s="5"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
       <c r="H27" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="11" t="s">
-        <v>89</v>
-      </c>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="13"/>
       <c r="B28" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C28" s="5"/>
+        <v>5</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>51</v>
+      </c>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
       <c r="H28" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="12"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="14" t="s">
+        <v>89</v>
+      </c>
       <c r="B29" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="6"/>
@@ -1292,13 +1294,13 @@
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
       <c r="H29" s="6" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="12"/>
+      <c r="A30" s="15"/>
       <c r="B30" s="5" t="s">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="6"/>
@@ -1306,13 +1308,13 @@
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
       <c r="H30" s="6" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="12"/>
+      <c r="A31" s="15"/>
       <c r="B31" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="6"/>
@@ -1320,13 +1322,13 @@
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
       <c r="H31" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="12"/>
+      <c r="A32" s="15"/>
       <c r="B32" s="5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="6"/>
@@ -1334,49 +1336,49 @@
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
       <c r="H32" s="6" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="13"/>
+      <c r="A33" s="15"/>
       <c r="B33" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>51</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="C33" s="5"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
       <c r="H33" s="6" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="14" t="s">
-        <v>87</v>
-      </c>
+      <c r="A34" s="16"/>
       <c r="B34" s="5" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
       <c r="H34" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="15"/>
+      <c r="A35" s="11" t="s">
+        <v>87</v>
+      </c>
       <c r="B35" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="C35" s="5"/>
+        <v>11</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>42</v>
+      </c>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
@@ -1386,9 +1388,9 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="15"/>
+      <c r="A36" s="12"/>
       <c r="B36" s="5" t="s">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="C36" s="5"/>
       <c r="D36" s="6"/>
@@ -1396,13 +1398,13 @@
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
       <c r="H36" s="6" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="15"/>
+      <c r="A37" s="12"/>
       <c r="B37" s="5" t="s">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="6"/>
@@ -1410,13 +1412,13 @@
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
       <c r="H37" s="6" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="15"/>
+      <c r="A38" s="12"/>
       <c r="B38" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C38" s="5"/>
       <c r="D38" s="6"/>
@@ -1424,13 +1426,13 @@
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
       <c r="H38" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="15"/>
+      <c r="A39" s="12"/>
       <c r="B39" s="5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="6"/>
@@ -1438,29 +1440,25 @@
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
       <c r="H39" s="6" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="16"/>
+      <c r="A40" s="12"/>
       <c r="B40" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>51</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="C40" s="5"/>
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
       <c r="G40" s="6"/>
       <c r="H40" s="6" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="11" t="s">
-        <v>22</v>
-      </c>
+      <c r="A41" s="13"/>
       <c r="B41" s="5" t="s">
         <v>5</v>
       </c>
@@ -1476,23 +1474,27 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="12"/>
+      <c r="A42" s="14" t="s">
+        <v>22</v>
+      </c>
       <c r="B42" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C42" s="5"/>
+        <v>5</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>51</v>
+      </c>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
       <c r="G42" s="6"/>
       <c r="H42" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="12"/>
+      <c r="A43" s="15"/>
       <c r="B43" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C43" s="5"/>
       <c r="D43" s="6"/>
@@ -1504,9 +1506,9 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" s="13"/>
+      <c r="A44" s="15"/>
       <c r="B44" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C44" s="5"/>
       <c r="D44" s="6"/>
@@ -1518,39 +1520,39 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" s="9"/>
+      <c r="A45" s="16"/>
       <c r="B45" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>51</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="C45" s="5"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
       <c r="H45" s="6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" s="15"/>
+      <c r="A46" s="9"/>
       <c r="B46" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C46" s="5"/>
+        <v>5</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>51</v>
+      </c>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
       <c r="H46" s="6" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47" s="15"/>
+      <c r="A47" s="12"/>
       <c r="B47" s="5" t="s">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="C47" s="5"/>
       <c r="D47" s="6"/>
@@ -1558,13 +1560,13 @@
       <c r="F47" s="6"/>
       <c r="G47" s="6"/>
       <c r="H47" s="6" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48" s="15"/>
+      <c r="A48" s="12"/>
       <c r="B48" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C48" s="5"/>
       <c r="D48" s="6"/>
@@ -1572,13 +1574,13 @@
       <c r="F48" s="6"/>
       <c r="G48" s="6"/>
       <c r="H48" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" s="15"/>
+      <c r="A49" s="12"/>
       <c r="B49" s="5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C49" s="5"/>
       <c r="D49" s="6"/>
@@ -1586,45 +1588,45 @@
       <c r="F49" s="6"/>
       <c r="G49" s="6"/>
       <c r="H49" s="6" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A50" s="16"/>
+      <c r="A50" s="12"/>
       <c r="B50" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>51</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="C50" s="5"/>
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
       <c r="F50" s="6"/>
       <c r="G50" s="6"/>
       <c r="H50" s="6" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A51" s="11" t="s">
-        <v>26</v>
-      </c>
+      <c r="A51" s="13"/>
       <c r="B51" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C51" s="5"/>
+        <v>5</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>51</v>
+      </c>
       <c r="D51" s="6"/>
       <c r="E51" s="6"/>
       <c r="F51" s="6"/>
       <c r="G51" s="6"/>
       <c r="H51" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A52" s="12"/>
+      <c r="A52" s="14" t="s">
+        <v>26</v>
+      </c>
       <c r="B52" s="5" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="C52" s="5"/>
       <c r="D52" s="6"/>
@@ -1636,13 +1638,11 @@
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A53" s="12"/>
-      <c r="B53" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>28</v>
-      </c>
+      <c r="A53" s="15"/>
+      <c r="B53" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C53" s="5"/>
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
       <c r="F53" s="6"/>
@@ -1652,10 +1652,12 @@
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A54" s="12"/>
-      <c r="B54" s="12"/>
+      <c r="A54" s="15"/>
+      <c r="B54" s="14" t="s">
+        <v>11</v>
+      </c>
       <c r="C54" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D54" s="6"/>
       <c r="E54" s="6"/>
@@ -1666,10 +1668,10 @@
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A55" s="12"/>
-      <c r="B55" s="12"/>
+      <c r="A55" s="15"/>
+      <c r="B55" s="15"/>
       <c r="C55" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D55" s="6"/>
       <c r="E55" s="6"/>
@@ -1680,10 +1682,10 @@
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A56" s="12"/>
-      <c r="B56" s="12"/>
+      <c r="A56" s="15"/>
+      <c r="B56" s="15"/>
       <c r="C56" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D56" s="6"/>
       <c r="E56" s="6"/>
@@ -1694,10 +1696,10 @@
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A57" s="12"/>
-      <c r="B57" s="12"/>
+      <c r="A57" s="15"/>
+      <c r="B57" s="15"/>
       <c r="C57" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D57" s="6"/>
       <c r="E57" s="6"/>
@@ -1708,10 +1710,10 @@
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A58" s="12"/>
-      <c r="B58" s="13"/>
+      <c r="A58" s="15"/>
+      <c r="B58" s="15"/>
       <c r="C58" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D58" s="6"/>
       <c r="E58" s="6"/>
@@ -1722,11 +1724,11 @@
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A59" s="12"/>
-      <c r="B59" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C59" s="5"/>
+      <c r="A59" s="15"/>
+      <c r="B59" s="16"/>
+      <c r="C59" s="5" t="s">
+        <v>33</v>
+      </c>
       <c r="D59" s="6"/>
       <c r="E59" s="6"/>
       <c r="F59" s="6"/>
@@ -1736,13 +1738,11 @@
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A60" s="12"/>
-      <c r="B60" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="A60" s="15"/>
+      <c r="B60" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C60" s="5"/>
       <c r="D60" s="6"/>
       <c r="E60" s="6"/>
       <c r="F60" s="6"/>
@@ -1752,10 +1752,12 @@
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A61" s="12"/>
-      <c r="B61" s="13"/>
+      <c r="A61" s="15"/>
+      <c r="B61" s="14" t="s">
+        <v>45</v>
+      </c>
       <c r="C61" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D61" s="6"/>
       <c r="E61" s="6"/>
@@ -1766,11 +1768,11 @@
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A62" s="12"/>
-      <c r="B62" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C62" s="5"/>
+      <c r="A62" s="15"/>
+      <c r="B62" s="16"/>
+      <c r="C62" s="5" t="s">
+        <v>47</v>
+      </c>
       <c r="D62" s="6"/>
       <c r="E62" s="6"/>
       <c r="F62" s="6"/>
@@ -1780,9 +1782,9 @@
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A63" s="12"/>
+      <c r="A63" s="15"/>
       <c r="B63" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C63" s="5"/>
       <c r="D63" s="6"/>
@@ -1794,9 +1796,9 @@
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A64" s="13"/>
+      <c r="A64" s="15"/>
       <c r="B64" s="5" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="C64" s="5"/>
       <c r="D64" s="6"/>
@@ -1808,15 +1810,11 @@
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A65" s="5" t="s">
-        <v>50</v>
-      </c>
+      <c r="A65" s="16"/>
       <c r="B65" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>52</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="C65" s="5"/>
       <c r="D65" s="6"/>
       <c r="E65" s="6"/>
       <c r="F65" s="6"/>
@@ -1825,17 +1823,35 @@
         <v>59</v>
       </c>
     </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A66" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D66" s="6"/>
+      <c r="E66" s="6"/>
+      <c r="F66" s="6"/>
+      <c r="G66" s="6"/>
+      <c r="H66" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A41:A44"/>
-    <mergeCell ref="B53:B58"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="A51:A64"/>
-    <mergeCell ref="A28:A33"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="B7:B11"/>
-    <mergeCell ref="B14:B21"/>
+    <mergeCell ref="B14:B22"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="B54:B59"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="A52:A65"/>
+    <mergeCell ref="A29:A34"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
